--- a/Cyber_Twin/whitebox.xlsx
+++ b/Cyber_Twin/whitebox.xlsx
@@ -492,11 +492,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -525,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +560,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +897,8 @@
   <dimension ref="A1:F1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1016,7 @@
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9666,5 +9674,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>